--- a/Diagramas.xlsx
+++ b/Diagramas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manu\Google Drive\UNIS\Semestres\Semestre 9\Sistemas de Bases de Datos 2\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77074F09-0007-4410-A477-870027F7466B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7248281-A10B-4592-8D50-CDBC319713D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{CA8E21EA-7420-4A1B-AA3B-1430383A49A4}"/>
   </bookViews>
@@ -346,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,6 +384,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2039,7 +2041,7 @@
   <dimension ref="A3:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,10 +2094,10 @@
       <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2153,13 +2155,13 @@
       <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -2186,7 +2188,7 @@
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2196,10 +2198,10 @@
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2245,7 +2247,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2262,7 +2264,7 @@
       <c r="H22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>29</v>
       </c>
     </row>
